--- a/data/excel_fortune_1000_cleaned_2.xlsx
+++ b/data/excel_fortune_1000_cleaned_2.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>headquarters_state</t>
+          <t>state</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
